--- a/文档/实验结果.xlsx
+++ b/文档/实验结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/863c4bbfb9f47078/文档/毕设/GradPaper/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{1F23299C-5249-4A49-8895-CA2CE9EF30D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7470A76E-E353-45A6-94EF-D248FD09B790}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{1F23299C-5249-4A49-8895-CA2CE9EF30D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7A83F22B-8871-4268-8946-FC389D346BA2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3A8EB495-BDD4-4EE5-94EC-9E268DED947C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>阿凡达</t>
   </si>
@@ -91,6 +91,57 @@
   <si>
     <t>平均得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ----  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AVG_p </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SD_p  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   P_np  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AVG_mp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AVG_mv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mo_mv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SD_mv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   统计学特征  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   权重    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   启动阈值    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   截止阈值    </t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA79FC9-54F7-4C2D-9255-FAE8596A001B}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12:AC17"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="108" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2992,7 +3043,7 @@
         <v>4.4117647058823567E-2</v>
       </c>
     </row>
-    <row r="17" spans="26:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
       <c r="Z17" t="s">
         <v>4</v>
       </c>
@@ -3004,6 +3055,287 @@
       </c>
       <c r="AC17">
         <v>2.1978021978022098E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="str">
+        <f>TRIM(K28)</f>
+        <v>统计学特征</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>TRIM(L28)</f>
+        <v>权重</v>
+      </c>
+      <c r="R29" t="str">
+        <f>TRIM(M28)</f>
+        <v>启动阈值</v>
+      </c>
+      <c r="S29" t="str">
+        <f>TRIM(N28)</f>
+        <v>截止阈值</v>
+      </c>
+    </row>
+    <row r="30" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>0.15</v>
+      </c>
+      <c r="M30">
+        <v>-10</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" ref="P29:P36" si="1">TRIM(K30)</f>
+        <v>AVG_p</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q28:S36" si="2">TRIM(L30)</f>
+        <v>0.15</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>0.15</v>
+      </c>
+      <c r="M31">
+        <v>130</v>
+      </c>
+      <c r="N31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="1"/>
+        <v>SD_p</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>0.15</v>
+      </c>
+      <c r="M32">
+        <v>0.2</v>
+      </c>
+      <c r="N32">
+        <v>0.4</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="1"/>
+        <v>P_np</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>0.15</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG_mp</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <v>0.1</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG_mv</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>0.2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="1"/>
+        <v>Mo_mv</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>0.1</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>SD_mv</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>

--- a/文档/实验结果.xlsx
+++ b/文档/实验结果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/863c4bbfb9f47078/文档/毕设/GradPaper/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaca\OneDrive\文档\毕设\GradPaper\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{1F23299C-5249-4A49-8895-CA2CE9EF30D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{7A83F22B-8871-4268-8946-FC389D346BA2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1F23299C-5249-4A49-8895-CA2CE9EF30D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CD86E3D4-2DFF-4E13-8548-40E49727CC8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3A8EB495-BDD4-4EE5-94EC-9E268DED947C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>阿凡达</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t xml:space="preserve">   截止阈值    </t>
+  </si>
+  <si>
+    <t>算法估值*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1121,7 +1125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>算法估值</c:v>
+                  <c:v>算法估值*10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1408,9 +1412,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82459256546420057"/>
+          <c:x val="0.78738326313861928"/>
           <c:y val="0.1253465536934065"/>
-          <c:w val="0.16031935542940853"/>
+          <c:w val="0.19752865775498993"/>
           <c:h val="0.75540370906025189"/>
         </c:manualLayout>
       </c:layout>
@@ -2034,7 +2038,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>7056</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>7056</xdr:rowOff>
     </xdr:to>
@@ -2363,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA79FC9-54F7-4C2D-9255-FAE8596A001B}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="108" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29:S36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2436,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="Z2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -3124,11 +3128,11 @@
         <v>24</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" ref="P29:P36" si="1">TRIM(K30)</f>
+        <f t="shared" ref="P30:P36" si="1">TRIM(K30)</f>
         <v>AVG_p</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ref="Q28:S36" si="2">TRIM(L30)</f>
+        <f t="shared" ref="Q30:S36" si="2">TRIM(L30)</f>
         <v>0.15</v>
       </c>
       <c r="R30" t="str">
